--- a/results/mp/logistic/corona/confidence/84/desired-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/desired-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,81 +43,84 @@
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>stop</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
     <t>to</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -136,22 +139,31 @@
     <t>special</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
@@ -163,70 +175,73 @@
     <t>confidence</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>save</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>give</t>
+    <t>check</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>corona</t>
@@ -587,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,7 +610,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
         <v>49</v>
@@ -656,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9736842105263158</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -674,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -706,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9411764705882353</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -724,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -756,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.918918918918919</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -774,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.95</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -798,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -806,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -824,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K6">
         <v>0.9322033898305084</v>
@@ -856,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8458904109589042</v>
+        <v>0.8356164383561644</v>
       </c>
       <c r="C7">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D7">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -874,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>0.9166666666666666</v>
@@ -906,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8333333333333334</v>
+        <v>0.725</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -924,31 +939,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8">
+        <v>0.8936170212765957</v>
+      </c>
+      <c r="L8">
+        <v>42</v>
+      </c>
+      <c r="M8">
+        <v>42</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>5</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8">
-        <v>0.8981723237597912</v>
-      </c>
-      <c r="L8">
-        <v>344</v>
-      </c>
-      <c r="M8">
-        <v>344</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -956,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -974,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.8928571428571429</v>
+        <v>0.8828125</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -998,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1006,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7450980392156863</v>
+        <v>0.6841085271317829</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>353</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>353</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1024,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.8873239436619719</v>
+        <v>0.8825065274151436</v>
       </c>
       <c r="L10">
-        <v>126</v>
+        <v>338</v>
       </c>
       <c r="M10">
-        <v>126</v>
+        <v>338</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1048,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1056,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7435897435897436</v>
+        <v>0.6772486772486772</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1074,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.8867924528301887</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L11">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="M11">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1098,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1106,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C12">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1124,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.86875</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L12">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="M12">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1148,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1156,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.686046511627907</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C13">
-        <v>354</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>354</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1174,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.859375</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L13">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M13">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1198,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1206,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6779661016949152</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C14">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1224,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.8536585365853658</v>
+        <v>0.85</v>
       </c>
       <c r="L14">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="M14">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1248,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1256,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6410256410256411</v>
+        <v>0.6241610738255033</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1274,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.8372093023255814</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1298,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1306,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6107382550335571</v>
+        <v>0.5944444444444444</v>
       </c>
       <c r="C16">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="D16">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1324,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.8333333333333334</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1348,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1356,13 +1371,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5527777777777778</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C17">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1374,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.8275862068965517</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L17">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="M17">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1398,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1406,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5272727272727272</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1424,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.8253968253968254</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="L18">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1448,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1456,7 +1471,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.509090909090909</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
         <v>28</v>
@@ -1474,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.825</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1498,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1506,13 +1521,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4933333333333333</v>
+        <v>0.48</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1524,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.8085106382978723</v>
+        <v>0.8</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1548,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1556,13 +1571,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4821428571428572</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1574,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.7948717948717948</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1598,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1606,13 +1621,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4333333333333333</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1627,16 +1642,16 @@
         <v>51</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1656,13 +1671,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4155844155844156</v>
+        <v>0.2305630026809651</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1674,19 +1689,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.7470588235294118</v>
+        <v>0.7588235294117647</v>
       </c>
       <c r="L23">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M23">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1698,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1706,13 +1721,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3412698412698413</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="C24">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1724,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.74</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1748,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1756,37 +1771,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2278820375335121</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C25">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D25">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>288</v>
+        <v>2310</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>0.7210884353741497</v>
+        <v>0.7448979591836735</v>
       </c>
       <c r="L25">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M25">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1798,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1806,37 +1821,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0109642050951306</v>
+        <v>0.01582176299644818</v>
       </c>
       <c r="C26">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E26">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F26">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>3067</v>
+        <v>3048</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <v>0.7142857142857143</v>
+        <v>0.7303370786516854</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1848,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1856,37 +1871,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01054407423028258</v>
+        <v>0.006991377301328362</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E27">
-        <v>0.24</v>
+        <v>0.55</v>
       </c>
       <c r="F27">
-        <v>0.76</v>
+        <v>0.45</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2346</v>
+        <v>4261</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27">
-        <v>0.7111111111111111</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1898,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1906,37 +1921,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006035283194057568</v>
+        <v>0.006621226874391432</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D28">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E28">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="F28">
-        <v>0.5700000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>4282</v>
+        <v>5101</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K28">
-        <v>0.7021276595744681</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L28">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="M28">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1948,21 +1963,45 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.005838534326555265</v>
+      </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>58</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>4938</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K29">
-        <v>0.6861924686192469</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L29">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1974,12 +2013,12 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K30">
         <v>0.6615384615384615</v>
@@ -2005,16 +2044,16 @@
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K31">
-        <v>0.6571428571428571</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L31">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2026,21 +2065,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K32">
-        <v>0.6470588235294118</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2052,21 +2091,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K33">
-        <v>0.6404494382022472</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L33">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2078,21 +2117,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K34">
-        <v>0.547945205479452</v>
+        <v>0.484375</v>
       </c>
       <c r="L34">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2109,16 +2148,16 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K35">
-        <v>0.4915254237288136</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2130,47 +2169,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K36">
-        <v>0.484375</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M36">
         <v>31</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K37">
-        <v>0.4487179487179487</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="L37">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2182,21 +2221,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K38">
-        <v>0.4098360655737705</v>
+        <v>0.056672760511883</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2208,33 +2247,215 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>36</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K39">
-        <v>0.008147916013788781</v>
+        <v>0.05183946488294314</v>
       </c>
       <c r="L39">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="M39">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="N39">
-        <v>0.72</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O39">
-        <v>0.28</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>3165</v>
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40">
+        <v>0.0146671681083114</v>
+      </c>
+      <c r="L40">
+        <v>39</v>
+      </c>
+      <c r="M40">
+        <v>53</v>
+      </c>
+      <c r="N40">
+        <v>0.74</v>
+      </c>
+      <c r="O40">
+        <v>0.26</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K41">
+        <v>0.01213389121338912</v>
+      </c>
+      <c r="L41">
+        <v>29</v>
+      </c>
+      <c r="M41">
+        <v>33</v>
+      </c>
+      <c r="N41">
+        <v>0.88</v>
+      </c>
+      <c r="O41">
+        <v>0.12</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K42">
+        <v>0.01028383381324558</v>
+      </c>
+      <c r="L42">
+        <v>25</v>
+      </c>
+      <c r="M42">
+        <v>39</v>
+      </c>
+      <c r="N42">
+        <v>0.64</v>
+      </c>
+      <c r="O42">
+        <v>0.36</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K43">
+        <v>0.008785691873235017</v>
+      </c>
+      <c r="L43">
+        <v>28</v>
+      </c>
+      <c r="M43">
+        <v>42</v>
+      </c>
+      <c r="N43">
+        <v>0.67</v>
+      </c>
+      <c r="O43">
+        <v>0.33</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44">
+        <v>0.008608655188459749</v>
+      </c>
+      <c r="L44">
+        <v>37</v>
+      </c>
+      <c r="M44">
+        <v>67</v>
+      </c>
+      <c r="N44">
+        <v>0.55</v>
+      </c>
+      <c r="O44">
+        <v>0.45</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K45">
+        <v>0.005846813486649776</v>
+      </c>
+      <c r="L45">
+        <v>30</v>
+      </c>
+      <c r="M45">
+        <v>64</v>
+      </c>
+      <c r="N45">
+        <v>0.47</v>
+      </c>
+      <c r="O45">
+        <v>0.53</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>5101</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46">
+        <v>0.005838534326555265</v>
+      </c>
+      <c r="L46">
+        <v>29</v>
+      </c>
+      <c r="M46">
+        <v>58</v>
+      </c>
+      <c r="N46">
+        <v>0.5</v>
+      </c>
+      <c r="O46">
+        <v>0.5</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>4938</v>
       </c>
     </row>
   </sheetData>
